--- a/xl/solver/constraints.xlsx
+++ b/xl/solver/constraints.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="600" yWindow="255" windowWidth="13020" windowHeight="8895" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="manufacturing" sheetId="1" r:id="rId1"/>
-    <sheet name="if-then" sheetId="2" r:id="rId2"/>
+    <sheet name="if-then" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="f_x">'if-then'!$B$6</definedName>
@@ -22,22 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
-  <si>
-    <t>chairs</t>
-  </si>
-  <si>
-    <t>cost_hr</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>machine_hrs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>y</t>
   </si>
@@ -85,6 +70,27 @@
   </si>
   <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>IMPLIES</t>
   </si>
 </sst>
 </file>
@@ -115,18 +121,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,20 +164,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,33 +177,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="machine_tbl" displayName="machine_tbl" ref="B2:C6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B2:C6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="machine" dataDxfId="3"/>
-    <tableColumn id="2" name="cost_hr" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,201 +467,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D19"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <f>VLOOKUP(B10, machine_tbl[], MATCH("cost_hr", machine_tbl[#Headers],0),FALSE) *C10</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
-        <f>VLOOKUP(B11, machine_tbl[], MATCH("cost_hr", machine_tbl[#Headers],0),FALSE) *C11</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <f>VLOOKUP(B12, machine_tbl[], MATCH("cost_hr", machine_tbl[#Headers],0),FALSE) *C12</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4">
-        <f>VLOOKUP(B13, machine_tbl[], MATCH("cost_hr", machine_tbl[#Headers],0),FALSE) *C13</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" s="3">
-        <f>SUM(C10:C13)</f>
-        <v>31</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(D10:D13)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:D8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
         <v>100000</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -705,9 +517,9 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
@@ -751,7 +563,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> 2*x</f>
@@ -768,7 +580,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <f>3*x</f>
@@ -785,7 +597,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -798,23 +610,23 @@
     <row r="9" spans="1:11">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -854,26 +666,26 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="D14" s="3" t="s">
-        <v>19</v>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -939,7 +751,7 @@
     </row>
     <row r="19" spans="4:11">
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -952,23 +764,23 @@
     <row r="20" spans="4:11">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="4:11">
@@ -1010,4 +822,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1">
+        <f>C4+D4-1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B7" si="0">C5+D5-1</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>C9+D9</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B12" si="1">C10+D10</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <f>1 - C14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1">
+        <f>1 - C15</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <f>1 - C17+D17</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:B20" si="2">1 - C18+D18</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>